--- a/variable_list.xlsx
+++ b/variable_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="227">
   <si>
     <t>한글명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,755 +75,751 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>안타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피안타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피홈런</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고의4구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자책점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2루타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3루타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병살타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출루율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장타율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도루실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Games</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earned Run Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shutout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Innings Pitched</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitches thrown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total Batters Faced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit Allowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home Run Allowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacrifice Fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacrifice Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB/BBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base on Balls (Allowed)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타자기록/투수기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBB/IBBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO/K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wild Pitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allowed Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earned Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBP/HB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Bases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left on base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stolen Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caught Steal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Run batted in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slugging average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On-base-percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground into double play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리타점(임의지정)</t>
+  </si>
+  <si>
+    <t>WRBI</t>
+  </si>
+  <si>
+    <t>구원(임의지정)</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>승률</t>
+  </si>
+  <si>
+    <t>WPCT</t>
+  </si>
+  <si>
+    <t>홀드</t>
+  </si>
+  <si>
+    <t>HLD</t>
+  </si>
+  <si>
+    <t>탈삼진</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>득점</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>출루율</t>
+  </si>
+  <si>
+    <t>OBP</t>
+  </si>
+  <si>
+    <t>게임차</t>
+  </si>
+  <si>
+    <t>BEH</t>
+  </si>
+  <si>
+    <t>Game behind</t>
+  </si>
+  <si>
+    <t>4사구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB / BBBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타자 기록</t>
+  </si>
+  <si>
+    <t>2B : 2루타</t>
+  </si>
+  <si>
+    <t>3B : 3루타</t>
+  </si>
+  <si>
+    <t>AB : 타수</t>
+  </si>
+  <si>
+    <t>AO : 뜬공</t>
+  </si>
+  <si>
+    <t>AVG : 타율</t>
+  </si>
+  <si>
+    <t>BB : 볼넷</t>
+  </si>
+  <si>
+    <t>BB/K : 볼넷/삼진</t>
+  </si>
+  <si>
+    <t>CS : 도루실패</t>
+  </si>
+  <si>
+    <t>E : 실책</t>
+  </si>
+  <si>
+    <t>G : 경기</t>
+  </si>
+  <si>
+    <t>GDP : 병살타</t>
+  </si>
+  <si>
+    <t>GO : 땅볼</t>
+  </si>
+  <si>
+    <t>GO/AO : 땅볼/뜬공</t>
+  </si>
+  <si>
+    <t>GPA : (1.8x출루율+장타율)/4</t>
+  </si>
+  <si>
+    <t>GW RBI : 결승타</t>
+  </si>
+  <si>
+    <t>H : 안타</t>
+  </si>
+  <si>
+    <t>HBP : 사구</t>
+  </si>
+  <si>
+    <t>HR : 홈런</t>
+  </si>
+  <si>
+    <t>IBB : 고의4구</t>
+  </si>
+  <si>
+    <t>ISOP : 순수장타율</t>
+  </si>
+  <si>
+    <t>MH : 멀티히트</t>
+  </si>
+  <si>
+    <t>OBP : 출루율</t>
+  </si>
+  <si>
+    <t>OPS : 출루율+장타율</t>
+  </si>
+  <si>
+    <t>P/PA : 투구수/타석</t>
+  </si>
+  <si>
+    <t>PA : 타석</t>
+  </si>
+  <si>
+    <t>PH-BA : 대타타율</t>
+  </si>
+  <si>
+    <t>R : 득점</t>
+  </si>
+  <si>
+    <t>RBI : 타점</t>
+  </si>
+  <si>
+    <t>RISP : 득점권타율</t>
+  </si>
+  <si>
+    <t>SAC : 희생번트</t>
+  </si>
+  <si>
+    <t>SB : 도루</t>
+  </si>
+  <si>
+    <t>SF : 희생플라이</t>
+  </si>
+  <si>
+    <t>SLG : 장타율</t>
+  </si>
+  <si>
+    <t>SO : 삼진</t>
+  </si>
+  <si>
+    <t>TB: 루타</t>
+  </si>
+  <si>
+    <t>XBH : 장타</t>
+  </si>
+  <si>
+    <t>XR : 추정득점</t>
+  </si>
+  <si>
+    <t>투수 기록</t>
+  </si>
+  <si>
+    <t>AVG : 피안타율</t>
+  </si>
+  <si>
+    <t>BABIP : 인플레이타구타율</t>
+  </si>
+  <si>
+    <t>BB/9 : 9이닝당 볼넷</t>
+  </si>
+  <si>
+    <t>BK : 보크</t>
+  </si>
+  <si>
+    <t>BSV : 블론세이브</t>
+  </si>
+  <si>
+    <t>CG : 완투</t>
+  </si>
+  <si>
+    <t>ER : 자책점</t>
+  </si>
+  <si>
+    <t>ERA : 평균자책점</t>
+  </si>
+  <si>
+    <t>GF : 종료</t>
+  </si>
+  <si>
+    <t>GS : 선발</t>
+  </si>
+  <si>
+    <t>H : 피안타</t>
+  </si>
+  <si>
+    <t>HLD : 홀드</t>
+  </si>
+  <si>
+    <t>IP : 이닝</t>
+  </si>
+  <si>
+    <t>K/9 : 9이닝당 삼진</t>
+  </si>
+  <si>
+    <t>K/BB : 삼진/볼넷</t>
+  </si>
+  <si>
+    <t>L : 패</t>
+  </si>
+  <si>
+    <t>NP : 투구수</t>
+  </si>
+  <si>
+    <t>OBP : 피출루율</t>
+  </si>
+  <si>
+    <t>OPS : 피출루율+피장타율</t>
+  </si>
+  <si>
+    <t>P/G : 투구수/경기</t>
+  </si>
+  <si>
+    <t>P/IP : 투구수/이닝</t>
+  </si>
+  <si>
+    <t>QS : 퀄리티스타트</t>
+  </si>
+  <si>
+    <t>R : 실점</t>
+  </si>
+  <si>
+    <t>SHO : 완봉</t>
+  </si>
+  <si>
+    <t>SLG : 피장타율</t>
+  </si>
+  <si>
+    <t>SV : 세이브</t>
+  </si>
+  <si>
+    <t>SVO : 세이브기회</t>
+  </si>
+  <si>
+    <t>TBF : 타자수</t>
+  </si>
+  <si>
+    <t>TS : 터프세이브</t>
+  </si>
+  <si>
+    <t>W : 승</t>
+  </si>
+  <si>
+    <t>Wgr : 구원승</t>
+  </si>
+  <si>
+    <t>Wgs : 선발승</t>
+  </si>
+  <si>
+    <t>WHIP : 이닝당 출루허용률</t>
+  </si>
+  <si>
+    <t>WP : 폭투</t>
+  </si>
+  <si>
+    <t>WPCT : 승률</t>
+  </si>
+  <si>
+    <t>수비 기록</t>
+  </si>
+  <si>
+    <t>A : 보살</t>
+  </si>
+  <si>
+    <t>CS : 도루저지</t>
+  </si>
+  <si>
+    <t>CS% : 도루저지율</t>
+  </si>
+  <si>
+    <t>DP : 병살</t>
+  </si>
+  <si>
+    <t>FPCT : 수비율</t>
+  </si>
+  <si>
+    <t>GS : 선발경기</t>
+  </si>
+  <si>
+    <t>PB : 포일</t>
+  </si>
+  <si>
+    <t>PKO : 견제사</t>
+  </si>
+  <si>
+    <t>PO : 자살</t>
+  </si>
+  <si>
+    <t>POS : 포지션</t>
+  </si>
+  <si>
+    <t>SB : 도루허용</t>
+  </si>
+  <si>
+    <t>주루 기록</t>
+  </si>
+  <si>
+    <t>OOB : 주루사</t>
+  </si>
+  <si>
+    <t>SB% : 도루성공률</t>
+  </si>
+  <si>
+    <t>SBA : 도루시도</t>
+  </si>
+  <si>
+    <t>없는 거 있으면 찾아서 쓰기</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB/FAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>타수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피안타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈런</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피홈런</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고의4구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자책점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2루타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3루타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병살타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실책</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출루율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장타율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도루실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Games</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earned Run Average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shutout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Innings Pitched</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pitches thrown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>At Bat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total Batters Faced</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit Allowed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home Run Allowed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sacrifice Fly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sacrifice Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB/BBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base on Balls (Allowed)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타자기록/투수기록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IBB/IBBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO/K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wild Pitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Allowed Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earned Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIDP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HBP/HB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Bases</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left on base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stolen Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caught Steal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Run batted in </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slugging average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On-base-percentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ground into double play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승리타점(임의지정)</t>
-  </si>
-  <si>
-    <t>WRBI</t>
-  </si>
-  <si>
-    <t>구원(임의지정)</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>승률</t>
-  </si>
-  <si>
-    <t>WPCT</t>
-  </si>
-  <si>
-    <t>홀드</t>
-  </si>
-  <si>
-    <t>HLD</t>
-  </si>
-  <si>
-    <t>탈삼진</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>득점</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>출루율</t>
-  </si>
-  <si>
-    <t>OBP</t>
-  </si>
-  <si>
-    <t>게임차</t>
-  </si>
-  <si>
-    <t>BEH</t>
-  </si>
-  <si>
-    <t>Game behind</t>
-  </si>
-  <si>
-    <t>4사구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBB / BBBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>년도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타자 기록</t>
-  </si>
-  <si>
-    <t>2B : 2루타</t>
-  </si>
-  <si>
-    <t>3B : 3루타</t>
-  </si>
-  <si>
-    <t>AB : 타수</t>
-  </si>
-  <si>
-    <t>AO : 뜬공</t>
-  </si>
-  <si>
-    <t>AVG : 타율</t>
-  </si>
-  <si>
-    <t>BB : 볼넷</t>
-  </si>
-  <si>
-    <t>BB/K : 볼넷/삼진</t>
-  </si>
-  <si>
-    <t>CS : 도루실패</t>
-  </si>
-  <si>
-    <t>E : 실책</t>
-  </si>
-  <si>
-    <t>G : 경기</t>
-  </si>
-  <si>
-    <t>GDP : 병살타</t>
-  </si>
-  <si>
-    <t>GO : 땅볼</t>
-  </si>
-  <si>
-    <t>GO/AO : 땅볼/뜬공</t>
-  </si>
-  <si>
-    <t>GPA : (1.8x출루율+장타율)/4</t>
-  </si>
-  <si>
-    <t>GW RBI : 결승타</t>
-  </si>
-  <si>
-    <t>H : 안타</t>
-  </si>
-  <si>
-    <t>HBP : 사구</t>
-  </si>
-  <si>
-    <t>HR : 홈런</t>
-  </si>
-  <si>
-    <t>IBB : 고의4구</t>
-  </si>
-  <si>
-    <t>ISOP : 순수장타율</t>
-  </si>
-  <si>
-    <t>MH : 멀티히트</t>
-  </si>
-  <si>
-    <t>OBP : 출루율</t>
-  </si>
-  <si>
-    <t>OPS : 출루율+장타율</t>
-  </si>
-  <si>
-    <t>P/PA : 투구수/타석</t>
-  </si>
-  <si>
-    <t>PA : 타석</t>
-  </si>
-  <si>
-    <t>PH-BA : 대타타율</t>
-  </si>
-  <si>
-    <t>R : 득점</t>
-  </si>
-  <si>
-    <t>RBI : 타점</t>
-  </si>
-  <si>
-    <t>RISP : 득점권타율</t>
-  </si>
-  <si>
-    <t>SAC : 희생번트</t>
-  </si>
-  <si>
-    <t>SB : 도루</t>
-  </si>
-  <si>
-    <t>SF : 희생플라이</t>
-  </si>
-  <si>
-    <t>SLG : 장타율</t>
-  </si>
-  <si>
-    <t>SO : 삼진</t>
-  </si>
-  <si>
-    <t>TB: 루타</t>
-  </si>
-  <si>
-    <t>XBH : 장타</t>
-  </si>
-  <si>
-    <t>XR : 추정득점</t>
-  </si>
-  <si>
-    <t>투수 기록</t>
-  </si>
-  <si>
-    <t>AVG : 피안타율</t>
-  </si>
-  <si>
-    <t>BABIP : 인플레이타구타율</t>
-  </si>
-  <si>
-    <t>BB/9 : 9이닝당 볼넷</t>
-  </si>
-  <si>
-    <t>BK : 보크</t>
-  </si>
-  <si>
-    <t>BSV : 블론세이브</t>
-  </si>
-  <si>
-    <t>CG : 완투</t>
-  </si>
-  <si>
-    <t>ER : 자책점</t>
-  </si>
-  <si>
-    <t>ERA : 평균자책점</t>
-  </si>
-  <si>
-    <t>GF : 종료</t>
-  </si>
-  <si>
-    <t>GS : 선발</t>
-  </si>
-  <si>
-    <t>H : 피안타</t>
-  </si>
-  <si>
-    <t>HLD : 홀드</t>
-  </si>
-  <si>
-    <t>IP : 이닝</t>
-  </si>
-  <si>
-    <t>K/9 : 9이닝당 삼진</t>
-  </si>
-  <si>
-    <t>K/BB : 삼진/볼넷</t>
-  </si>
-  <si>
-    <t>L : 패</t>
-  </si>
-  <si>
-    <t>NP : 투구수</t>
-  </si>
-  <si>
-    <t>OBP : 피출루율</t>
-  </si>
-  <si>
-    <t>OPS : 피출루율+피장타율</t>
-  </si>
-  <si>
-    <t>P/G : 투구수/경기</t>
-  </si>
-  <si>
-    <t>P/IP : 투구수/이닝</t>
-  </si>
-  <si>
-    <t>QS : 퀄리티스타트</t>
-  </si>
-  <si>
-    <t>R : 실점</t>
-  </si>
-  <si>
-    <t>SHO : 완봉</t>
-  </si>
-  <si>
-    <t>SLG : 피장타율</t>
-  </si>
-  <si>
-    <t>SV : 세이브</t>
-  </si>
-  <si>
-    <t>SVO : 세이브기회</t>
-  </si>
-  <si>
-    <t>TBF : 타자수</t>
-  </si>
-  <si>
-    <t>TS : 터프세이브</t>
-  </si>
-  <si>
-    <t>W : 승</t>
-  </si>
-  <si>
-    <t>Wgr : 구원승</t>
-  </si>
-  <si>
-    <t>Wgs : 선발승</t>
-  </si>
-  <si>
-    <t>WHIP : 이닝당 출루허용률</t>
-  </si>
-  <si>
-    <t>WP : 폭투</t>
-  </si>
-  <si>
-    <t>WPCT : 승률</t>
-  </si>
-  <si>
-    <t>수비 기록</t>
-  </si>
-  <si>
-    <t>A : 보살</t>
-  </si>
-  <si>
-    <t>CS : 도루저지</t>
-  </si>
-  <si>
-    <t>CS% : 도루저지율</t>
-  </si>
-  <si>
-    <t>DP : 병살</t>
-  </si>
-  <si>
-    <t>FPCT : 수비율</t>
-  </si>
-  <si>
-    <t>GS : 선발경기</t>
-  </si>
-  <si>
-    <t>PB : 포일</t>
-  </si>
-  <si>
-    <t>PKO : 견제사</t>
-  </si>
-  <si>
-    <t>PO : 자살</t>
-  </si>
-  <si>
-    <t>POS : 포지션</t>
-  </si>
-  <si>
-    <t>SB : 도루허용</t>
-  </si>
-  <si>
-    <t>주루 기록</t>
-  </si>
-  <si>
-    <t>OOB : 주루사</t>
-  </si>
-  <si>
-    <t>SB% : 도루성공률</t>
-  </si>
-  <si>
-    <t>SBA : 도루시도</t>
-  </si>
-  <si>
-    <t>없는 거 있으면 찾아서 쓰기</t>
-  </si>
-  <si>
-    <t>YEAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1430,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1451,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1459,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1467,10 +1463,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1478,24 +1474,24 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1503,10 +1499,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1514,10 +1510,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1525,10 +1521,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1536,10 +1532,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1547,10 +1543,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1558,10 +1554,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1569,404 +1565,404 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="14.25">
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="14.25">
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="16.5">
       <c r="B45" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="16.5">
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="16.5">
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="14.25">
       <c r="B48" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5">
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="B52" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="B54" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1977,7 +1973,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1988,341 +1984,341 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -2331,11 +2327,11 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -2344,11 +2340,11 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -2357,11 +2353,11 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -2370,11 +2366,11 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -2383,11 +2379,11 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -2396,11 +2392,11 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -2409,11 +2405,11 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -2422,11 +2418,11 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -2435,11 +2431,11 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -2448,11 +2444,11 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -2461,11 +2457,11 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -2474,11 +2470,11 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -2487,11 +2483,11 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -2500,11 +2496,11 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -2513,11 +2509,11 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -2528,7 +2524,7 @@
       <c r="A96" s="14"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -2539,7 +2535,7 @@
       <c r="A97" s="14"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -2550,7 +2546,7 @@
       <c r="A98" s="14"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
@@ -2561,7 +2557,7 @@
       <c r="A99" s="14"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -2572,7 +2568,7 @@
       <c r="A100" s="14"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -2583,7 +2579,7 @@
       <c r="A101" s="14"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -2594,7 +2590,7 @@
       <c r="A102" s="14"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -2605,7 +2601,7 @@
       <c r="A103" s="14"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -2616,7 +2612,7 @@
       <c r="A104" s="14"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -2627,7 +2623,7 @@
       <c r="A105" s="14"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -2638,7 +2634,7 @@
       <c r="A106" s="14"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -2649,7 +2645,7 @@
       <c r="A107" s="15"/>
       <c r="B107" s="16"/>
       <c r="C107" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
@@ -2711,6 +2707,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
